--- a/Caso2_w.mendez/docs/datos.xlsx
+++ b/Caso2_w.mendez/docs/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/124a16568aa2cd6f/Documentos/Trabajos_U/InfraComp/Caso2/Caso2_w.mendez/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="293" documentId="8_{69188EF6-A59D-46E8-AC4D-48C62BA181EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{431B5157-4E19-4B77-AC0D-EB5EDA618F36}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="8_{69188EF6-A59D-46E8-AC4D-48C62BA181EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FE9B792-73D2-4C83-A8DF-726213CEC015}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="-2265" windowWidth="15375" windowHeight="7785" xr2:uid="{0E895917-13B4-4D0D-970B-A25009E7787E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0E895917-13B4-4D0D-970B-A25009E7787E}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos" sheetId="2" r:id="rId1"/>
@@ -484,15 +484,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,6 +491,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1"/>
@@ -522,13 +522,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -824,7 +824,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,7 +981,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1138,7 +1138,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1295,7 +1295,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20206,8 +20206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41299C6A-7D40-4786-BF2E-05EB88E49E30}">
   <dimension ref="A3:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20254,7 +20254,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -20271,7 +20271,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -20288,7 +20288,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -20305,7 +20305,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -21411,126 +21411,126 @@
       <c r="K3" t="s">
         <v>10</v>
       </c>
-      <c r="AG3" s="50">
+      <c r="AG3" s="72">
         <v>0</v>
       </c>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="50">
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="72">
         <v>1</v>
       </c>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="50">
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="74"/>
+      <c r="AM3" s="72">
         <v>2</v>
       </c>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="50">
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="72">
         <v>3</v>
       </c>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="50">
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="72">
         <v>4</v>
       </c>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="50">
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="72">
         <v>5</v>
       </c>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="50">
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="72">
         <v>6</v>
       </c>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="50">
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="74"/>
+      <c r="BB3" s="72">
         <v>7</v>
       </c>
-      <c r="BC3" s="51"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="50">
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="72">
         <v>8</v>
       </c>
-      <c r="BF3" s="51"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="50">
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="74"/>
+      <c r="BH3" s="72">
         <v>9</v>
       </c>
-      <c r="BI3" s="51"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="50">
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="74"/>
+      <c r="BK3" s="72">
         <v>10</v>
       </c>
-      <c r="BL3" s="51"/>
-      <c r="BM3" s="52"/>
-      <c r="BN3" s="50">
+      <c r="BL3" s="73"/>
+      <c r="BM3" s="74"/>
+      <c r="BN3" s="72">
         <v>11</v>
       </c>
-      <c r="BO3" s="51"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="50">
+      <c r="BO3" s="73"/>
+      <c r="BP3" s="74"/>
+      <c r="BQ3" s="72">
         <v>12</v>
       </c>
-      <c r="BR3" s="51"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="50">
+      <c r="BR3" s="73"/>
+      <c r="BS3" s="74"/>
+      <c r="BT3" s="72">
         <v>13</v>
       </c>
-      <c r="BU3" s="51"/>
-      <c r="BV3" s="52"/>
-      <c r="BW3" s="50">
+      <c r="BU3" s="73"/>
+      <c r="BV3" s="74"/>
+      <c r="BW3" s="72">
         <v>14</v>
       </c>
-      <c r="BX3" s="51"/>
-      <c r="BY3" s="52"/>
-      <c r="BZ3" s="50">
+      <c r="BX3" s="73"/>
+      <c r="BY3" s="74"/>
+      <c r="BZ3" s="72">
         <v>15</v>
       </c>
-      <c r="CA3" s="51"/>
-      <c r="CB3" s="52"/>
-      <c r="CC3" s="50">
+      <c r="CA3" s="73"/>
+      <c r="CB3" s="74"/>
+      <c r="CC3" s="72">
         <v>16</v>
       </c>
-      <c r="CD3" s="51"/>
-      <c r="CE3" s="52"/>
-      <c r="CF3" s="50">
+      <c r="CD3" s="73"/>
+      <c r="CE3" s="74"/>
+      <c r="CF3" s="72">
         <v>17</v>
       </c>
-      <c r="CG3" s="51"/>
-      <c r="CH3" s="52"/>
-      <c r="CI3" s="50">
+      <c r="CG3" s="73"/>
+      <c r="CH3" s="74"/>
+      <c r="CI3" s="72">
         <v>18</v>
       </c>
-      <c r="CJ3" s="51"/>
-      <c r="CK3" s="52"/>
-      <c r="CL3" s="50">
+      <c r="CJ3" s="73"/>
+      <c r="CK3" s="74"/>
+      <c r="CL3" s="72">
         <v>19</v>
       </c>
-      <c r="CM3" s="51"/>
-      <c r="CN3" s="52"/>
-      <c r="CO3" s="50">
+      <c r="CM3" s="73"/>
+      <c r="CN3" s="74"/>
+      <c r="CO3" s="72">
         <v>20</v>
       </c>
-      <c r="CP3" s="51"/>
-      <c r="CQ3" s="52"/>
-      <c r="CR3" s="50">
+      <c r="CP3" s="73"/>
+      <c r="CQ3" s="74"/>
+      <c r="CR3" s="72">
         <v>21</v>
       </c>
-      <c r="CS3" s="51"/>
-      <c r="CT3" s="52"/>
-      <c r="CU3" s="50">
+      <c r="CS3" s="73"/>
+      <c r="CT3" s="74"/>
+      <c r="CU3" s="72">
         <v>22</v>
       </c>
-      <c r="CV3" s="51"/>
-      <c r="CW3" s="52"/>
-      <c r="CX3" s="50">
+      <c r="CV3" s="73"/>
+      <c r="CW3" s="74"/>
+      <c r="CX3" s="72">
         <v>23</v>
       </c>
-      <c r="CY3" s="51"/>
-      <c r="CZ3" s="52"/>
+      <c r="CY3" s="73"/>
+      <c r="CZ3" s="74"/>
     </row>
     <row r="4" spans="2:104" x14ac:dyDescent="0.25">
       <c r="R4">
@@ -21772,46 +21772,46 @@
       </c>
     </row>
     <row r="5" spans="2:104" x14ac:dyDescent="0.25">
-      <c r="B5" s="53">
+      <c r="B5" s="50">
         <v>0</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="53">
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="50">
         <v>1</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="53">
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="50">
         <v>2</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="53">
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="50">
         <v>3</v>
       </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="53">
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="50">
         <v>4</v>
       </c>
-      <c r="O5" s="54"/>
-      <c r="P5" s="55"/>
-      <c r="R5" s="53">
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
+      <c r="R5" s="50">
         <v>0</v>
       </c>
-      <c r="S5" s="54"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="53">
+      <c r="S5" s="51"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="50">
         <v>2</v>
       </c>
-      <c r="V5" s="54"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="53">
+      <c r="V5" s="51"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="50">
         <v>3</v>
       </c>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="55"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="52"/>
       <c r="AG5" s="45"/>
       <c r="AH5" s="46"/>
       <c r="AI5" s="47"/>
@@ -22036,56 +22036,56 @@
       </c>
     </row>
     <row r="9" spans="2:104" x14ac:dyDescent="0.25">
-      <c r="B9" s="53">
+      <c r="B9" s="50">
         <v>0</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="53">
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="50">
         <v>1</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="53">
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="50">
         <v>2</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="53">
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="50">
         <v>3</v>
       </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="53">
+      <c r="L9" s="51"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="50">
         <v>4</v>
       </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="53">
+      <c r="O9" s="51"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="50">
         <v>5</v>
       </c>
-      <c r="R9" s="54"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="53">
+      <c r="R9" s="51"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="50">
         <v>6</v>
       </c>
-      <c r="U9" s="54"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="53">
+      <c r="U9" s="51"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="50">
         <v>7</v>
       </c>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="53">
+      <c r="X9" s="51"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="50">
         <v>8</v>
       </c>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="53">
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="50">
         <v>9</v>
       </c>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="55"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="52"/>
       <c r="AG9" t="s">
         <v>14</v>
       </c>
@@ -22231,27 +22231,27 @@
       <c r="AE11" s="32"/>
     </row>
     <row r="14" spans="2:104" x14ac:dyDescent="0.25">
-      <c r="B14" s="72">
+      <c r="B14" s="53">
         <v>0</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72">
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53">
         <v>1</v>
       </c>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72">
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53">
         <v>2</v>
       </c>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
     </row>
     <row r="15" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B15" s="35">
@@ -22301,32 +22301,32 @@
       </c>
     </row>
     <row r="16" spans="2:104" x14ac:dyDescent="0.25">
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="73" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="74"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="73" t="s">
+      <c r="G16" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="74"/>
-      <c r="I16" s="73" t="s">
+      <c r="H16" s="55"/>
+      <c r="I16" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="74"/>
+      <c r="J16" s="55"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="73" t="s">
+      <c r="L16" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M16" s="74"/>
-      <c r="N16" s="73" t="s">
+      <c r="M16" s="55"/>
+      <c r="N16" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="74"/>
+      <c r="O16" s="55"/>
       <c r="P16" s="35"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -22343,16 +22343,16 @@
       <c r="T18" s="37"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B19" s="53">
+      <c r="B19" s="50">
         <v>0</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="53">
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="50">
         <v>1</v>
       </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
       <c r="I19" t="s">
         <v>10</v>
       </c>
@@ -22434,16 +22434,16 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B22" s="53">
+      <c r="B22" s="50">
         <v>0</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="54">
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="51">
         <v>0.1</v>
       </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L23" t="s">
@@ -22604,12 +22604,47 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CU3:CW3"/>
+    <mergeCell ref="CX3:CZ3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="AC9:AE9"/>
     <mergeCell ref="L14:P14"/>
@@ -22626,47 +22661,12 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CU3:CW3"/>
-    <mergeCell ref="CX3:CZ3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Caso2_w.mendez/docs/datos.xlsx
+++ b/Caso2_w.mendez/docs/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/124a16568aa2cd6f/Documentos/Trabajos_U/InfraComp/Caso2/Caso2_w.mendez/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="297" documentId="8_{69188EF6-A59D-46E8-AC4D-48C62BA181EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FE9B792-73D2-4C83-A8DF-726213CEC015}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="8_{69188EF6-A59D-46E8-AC4D-48C62BA181EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EAC990D-E83D-4FB2-BB7C-9E4A81A059DC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0E895917-13B4-4D0D-970B-A25009E7787E}"/>
+    <workbookView xWindow="5910" yWindow="2250" windowWidth="15375" windowHeight="7785" xr2:uid="{0E895917-13B4-4D0D-970B-A25009E7787E}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos" sheetId="2" r:id="rId1"/>
@@ -484,6 +484,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -493,6 +502,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,29 +531,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30"/>
@@ -7513,7 +7513,7 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -20206,8 +20206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41299C6A-7D40-4786-BF2E-05EB88E49E30}">
   <dimension ref="A3:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20575,7 +20575,7 @@
         <v>48</v>
       </c>
       <c r="D56">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -21411,126 +21411,126 @@
       <c r="K3" t="s">
         <v>10</v>
       </c>
-      <c r="AG3" s="72">
+      <c r="AG3" s="50">
         <v>0</v>
       </c>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="74"/>
-      <c r="AJ3" s="72">
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="50">
         <v>1</v>
       </c>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="74"/>
-      <c r="AM3" s="72">
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="50">
         <v>2</v>
       </c>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="74"/>
-      <c r="AP3" s="72">
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="50">
         <v>3</v>
       </c>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="74"/>
-      <c r="AS3" s="72">
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="50">
         <v>4</v>
       </c>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="72">
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="50">
         <v>5</v>
       </c>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="74"/>
-      <c r="AY3" s="72">
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="50">
         <v>6</v>
       </c>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="74"/>
-      <c r="BB3" s="72">
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="50">
         <v>7</v>
       </c>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="74"/>
-      <c r="BE3" s="72">
+      <c r="BC3" s="51"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="50">
         <v>8</v>
       </c>
-      <c r="BF3" s="73"/>
-      <c r="BG3" s="74"/>
-      <c r="BH3" s="72">
+      <c r="BF3" s="51"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="50">
         <v>9</v>
       </c>
-      <c r="BI3" s="73"/>
-      <c r="BJ3" s="74"/>
-      <c r="BK3" s="72">
+      <c r="BI3" s="51"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="50">
         <v>10</v>
       </c>
-      <c r="BL3" s="73"/>
-      <c r="BM3" s="74"/>
-      <c r="BN3" s="72">
+      <c r="BL3" s="51"/>
+      <c r="BM3" s="52"/>
+      <c r="BN3" s="50">
         <v>11</v>
       </c>
-      <c r="BO3" s="73"/>
-      <c r="BP3" s="74"/>
-      <c r="BQ3" s="72">
+      <c r="BO3" s="51"/>
+      <c r="BP3" s="52"/>
+      <c r="BQ3" s="50">
         <v>12</v>
       </c>
-      <c r="BR3" s="73"/>
-      <c r="BS3" s="74"/>
-      <c r="BT3" s="72">
+      <c r="BR3" s="51"/>
+      <c r="BS3" s="52"/>
+      <c r="BT3" s="50">
         <v>13</v>
       </c>
-      <c r="BU3" s="73"/>
-      <c r="BV3" s="74"/>
-      <c r="BW3" s="72">
+      <c r="BU3" s="51"/>
+      <c r="BV3" s="52"/>
+      <c r="BW3" s="50">
         <v>14</v>
       </c>
-      <c r="BX3" s="73"/>
-      <c r="BY3" s="74"/>
-      <c r="BZ3" s="72">
+      <c r="BX3" s="51"/>
+      <c r="BY3" s="52"/>
+      <c r="BZ3" s="50">
         <v>15</v>
       </c>
-      <c r="CA3" s="73"/>
-      <c r="CB3" s="74"/>
-      <c r="CC3" s="72">
+      <c r="CA3" s="51"/>
+      <c r="CB3" s="52"/>
+      <c r="CC3" s="50">
         <v>16</v>
       </c>
-      <c r="CD3" s="73"/>
-      <c r="CE3" s="74"/>
-      <c r="CF3" s="72">
+      <c r="CD3" s="51"/>
+      <c r="CE3" s="52"/>
+      <c r="CF3" s="50">
         <v>17</v>
       </c>
-      <c r="CG3" s="73"/>
-      <c r="CH3" s="74"/>
-      <c r="CI3" s="72">
+      <c r="CG3" s="51"/>
+      <c r="CH3" s="52"/>
+      <c r="CI3" s="50">
         <v>18</v>
       </c>
-      <c r="CJ3" s="73"/>
-      <c r="CK3" s="74"/>
-      <c r="CL3" s="72">
+      <c r="CJ3" s="51"/>
+      <c r="CK3" s="52"/>
+      <c r="CL3" s="50">
         <v>19</v>
       </c>
-      <c r="CM3" s="73"/>
-      <c r="CN3" s="74"/>
-      <c r="CO3" s="72">
+      <c r="CM3" s="51"/>
+      <c r="CN3" s="52"/>
+      <c r="CO3" s="50">
         <v>20</v>
       </c>
-      <c r="CP3" s="73"/>
-      <c r="CQ3" s="74"/>
-      <c r="CR3" s="72">
+      <c r="CP3" s="51"/>
+      <c r="CQ3" s="52"/>
+      <c r="CR3" s="50">
         <v>21</v>
       </c>
-      <c r="CS3" s="73"/>
-      <c r="CT3" s="74"/>
-      <c r="CU3" s="72">
+      <c r="CS3" s="51"/>
+      <c r="CT3" s="52"/>
+      <c r="CU3" s="50">
         <v>22</v>
       </c>
-      <c r="CV3" s="73"/>
-      <c r="CW3" s="74"/>
-      <c r="CX3" s="72">
+      <c r="CV3" s="51"/>
+      <c r="CW3" s="52"/>
+      <c r="CX3" s="50">
         <v>23</v>
       </c>
-      <c r="CY3" s="73"/>
-      <c r="CZ3" s="74"/>
+      <c r="CY3" s="51"/>
+      <c r="CZ3" s="52"/>
     </row>
     <row r="4" spans="2:104" x14ac:dyDescent="0.25">
       <c r="R4">
@@ -21772,46 +21772,46 @@
       </c>
     </row>
     <row r="5" spans="2:104" x14ac:dyDescent="0.25">
-      <c r="B5" s="50">
+      <c r="B5" s="53">
         <v>0</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="50">
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="53">
         <v>1</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="50">
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="53">
         <v>2</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="50">
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="53">
         <v>3</v>
       </c>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="50">
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="53">
         <v>4</v>
       </c>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
-      <c r="R5" s="50">
+      <c r="O5" s="54"/>
+      <c r="P5" s="55"/>
+      <c r="R5" s="53">
         <v>0</v>
       </c>
-      <c r="S5" s="51"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="50">
+      <c r="S5" s="54"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="53">
         <v>2</v>
       </c>
-      <c r="V5" s="51"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="50">
+      <c r="V5" s="54"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="53">
         <v>3</v>
       </c>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="52"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="55"/>
       <c r="AG5" s="45"/>
       <c r="AH5" s="46"/>
       <c r="AI5" s="47"/>
@@ -22036,56 +22036,56 @@
       </c>
     </row>
     <row r="9" spans="2:104" x14ac:dyDescent="0.25">
-      <c r="B9" s="50">
+      <c r="B9" s="53">
         <v>0</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="50">
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="53">
         <v>1</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="50">
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="53">
         <v>2</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="50">
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="53">
         <v>3</v>
       </c>
-      <c r="L9" s="51"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="50">
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="53">
         <v>4</v>
       </c>
-      <c r="O9" s="51"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="50">
+      <c r="O9" s="54"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="53">
         <v>5</v>
       </c>
-      <c r="R9" s="51"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="50">
+      <c r="R9" s="54"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="53">
         <v>6</v>
       </c>
-      <c r="U9" s="51"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="50">
+      <c r="U9" s="54"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="53">
         <v>7</v>
       </c>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="50">
+      <c r="X9" s="54"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="53">
         <v>8</v>
       </c>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="50">
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="53">
         <v>9</v>
       </c>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="52"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="55"/>
       <c r="AG9" t="s">
         <v>14</v>
       </c>
@@ -22183,45 +22183,45 @@
       </c>
     </row>
     <row r="11" spans="2:104" x14ac:dyDescent="0.25">
-      <c r="B11" s="62">
+      <c r="B11" s="56">
         <v>1</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="26"/>
-      <c r="E11" s="64">
+      <c r="E11" s="58">
         <v>2</v>
       </c>
-      <c r="F11" s="65"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="27"/>
-      <c r="H11" s="66">
+      <c r="H11" s="60">
         <v>3</v>
       </c>
-      <c r="I11" s="67"/>
+      <c r="I11" s="61"/>
       <c r="J11" s="28"/>
-      <c r="K11" s="68">
+      <c r="K11" s="62">
         <v>4</v>
       </c>
-      <c r="L11" s="69"/>
+      <c r="L11" s="63"/>
       <c r="M11" s="29"/>
-      <c r="N11" s="70">
+      <c r="N11" s="64">
         <v>5</v>
       </c>
-      <c r="O11" s="71"/>
+      <c r="O11" s="65"/>
       <c r="P11" s="32"/>
-      <c r="Q11" s="56">
+      <c r="Q11" s="69">
         <v>6</v>
       </c>
-      <c r="R11" s="57"/>
+      <c r="R11" s="70"/>
       <c r="S11" s="26"/>
-      <c r="T11" s="58">
+      <c r="T11" s="71">
         <v>7</v>
       </c>
-      <c r="U11" s="59"/>
+      <c r="U11" s="72"/>
       <c r="V11" s="27"/>
-      <c r="W11" s="60">
+      <c r="W11" s="73">
         <v>8</v>
       </c>
-      <c r="X11" s="61"/>
+      <c r="X11" s="74"/>
       <c r="Y11" s="28"/>
       <c r="Z11" s="33"/>
       <c r="AA11" s="34"/>
@@ -22231,27 +22231,27 @@
       <c r="AE11" s="32"/>
     </row>
     <row r="14" spans="2:104" x14ac:dyDescent="0.25">
-      <c r="B14" s="53">
+      <c r="B14" s="66">
         <v>0</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53">
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66">
         <v>1</v>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53">
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66">
         <v>2</v>
       </c>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
     </row>
     <row r="15" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B15" s="35">
@@ -22301,32 +22301,32 @@
       </c>
     </row>
     <row r="16" spans="2:104" x14ac:dyDescent="0.25">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="54" t="s">
+      <c r="C16" s="68"/>
+      <c r="D16" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="55"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="54" t="s">
+      <c r="H16" s="68"/>
+      <c r="I16" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="55"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="54" t="s">
+      <c r="L16" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="M16" s="55"/>
-      <c r="N16" s="54" t="s">
+      <c r="M16" s="68"/>
+      <c r="N16" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="55"/>
+      <c r="O16" s="68"/>
       <c r="P16" s="35"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -22343,16 +22343,16 @@
       <c r="T18" s="37"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B19" s="50">
+      <c r="B19" s="53">
         <v>0</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="50">
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="53">
         <v>1</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
       <c r="I19" t="s">
         <v>10</v>
       </c>
@@ -22434,16 +22434,16 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B22" s="50">
+      <c r="B22" s="53">
         <v>0</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="51">
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="54">
         <v>0.1</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L23" t="s">
@@ -22604,48 +22604,12 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CU3:CW3"/>
-    <mergeCell ref="CX3:CZ3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:K14"/>
     <mergeCell ref="AC9:AE9"/>
     <mergeCell ref="L14:P14"/>
     <mergeCell ref="B16:C16"/>
@@ -22661,12 +22625,48 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:M9"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CU3:CW3"/>
+    <mergeCell ref="CX3:CZ3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Caso2_w.mendez/docs/datos.xlsx
+++ b/Caso2_w.mendez/docs/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/124a16568aa2cd6f/Documentos/Trabajos_U/InfraComp/Caso2/Caso2_w.mendez/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="8_{69188EF6-A59D-46E8-AC4D-48C62BA181EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EAC990D-E83D-4FB2-BB7C-9E4A81A059DC}"/>
+  <xr:revisionPtr revIDLastSave="391" documentId="8_{69188EF6-A59D-46E8-AC4D-48C62BA181EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB0F741E-5901-4440-ADCE-0ACEDC52BFA2}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="2250" windowWidth="15375" windowHeight="7785" xr2:uid="{0E895917-13B4-4D0D-970B-A25009E7787E}"/>
+    <workbookView xWindow="945" yWindow="150" windowWidth="15375" windowHeight="7785" xr2:uid="{0E895917-13B4-4D0D-970B-A25009E7787E}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="17">
   <si>
     <t>4x4, TE=1, Recorrido 1</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>16x16, TE=4, Recorrido 1</t>
+  </si>
+  <si>
+    <t>16x16, TE=4, Recorrido 2</t>
   </si>
 </sst>
 </file>
@@ -484,15 +490,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,20 +499,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,6 +514,29 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30"/>
@@ -1631,7 +1637,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>4x4, TE=2, Recorrido 2</a:t>
+              <a:t>4x4, TE=1, Recorrido 2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1720,7 +1726,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Casos (2)'!$A$53</c:f>
+              <c:f>'Casos (2)'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1825,7 +1831,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$52:$E$52</c:f>
+              <c:f>'Casos (2)'!$B$20:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1846,7 +1852,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$53:$E$53</c:f>
+              <c:f>'Casos (2)'!$B$21:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1868,7 +1874,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A084-4BC0-A1E8-DFD10C203F7C}"/>
+              <c16:uniqueId val="{00000000-E2A0-4B63-ABDC-40B6B81F7B3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1877,7 +1883,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Casos (2)'!$A$54</c:f>
+              <c:f>'Casos (2)'!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1982,7 +1988,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$52:$E$52</c:f>
+              <c:f>'Casos (2)'!$B$20:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2003,12 +2009,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$54:$E$54</c:f>
+              <c:f>'Casos (2)'!$B$22:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2025,7 +2031,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A084-4BC0-A1E8-DFD10C203F7C}"/>
+              <c16:uniqueId val="{00000001-E2A0-4B63-ABDC-40B6B81F7B3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2034,7 +2040,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Casos (2)'!$A$55</c:f>
+              <c:f>'Casos (2)'!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2139,7 +2145,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$52:$E$52</c:f>
+              <c:f>'Casos (2)'!$B$20:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2160,15 +2166,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$55:$E$55</c:f>
+              <c:f>'Casos (2)'!$B$23:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2182,7 +2188,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A084-4BC0-A1E8-DFD10C203F7C}"/>
+              <c16:uniqueId val="{00000002-E2A0-4B63-ABDC-40B6B81F7B3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2191,7 +2197,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Casos (2)'!$A$56</c:f>
+              <c:f>'Casos (2)'!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2296,7 +2302,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$52:$E$52</c:f>
+              <c:f>'Casos (2)'!$B$20:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2317,7 +2323,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$56:$E$56</c:f>
+              <c:f>'Casos (2)'!$B$24:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2325,10 +2331,10 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2339,7 +2345,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A084-4BC0-A1E8-DFD10C203F7C}"/>
+              <c16:uniqueId val="{00000003-E2A0-4B63-ABDC-40B6B81F7B3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2668,6 +2674,2080 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>4x4, TE=2, Recorrido 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Casos (2)'!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MP=36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Casos (2)'!$B$36:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Casos (2)'!$B$37:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6545-4351-A1B6-FD09089BE13D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Casos (2)'!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MP=18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Casos (2)'!$B$36:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Casos (2)'!$B$38:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6545-4351-A1B6-FD09089BE13D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Casos (2)'!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MP=06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Casos (2)'!$B$36:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Casos (2)'!$B$39:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6545-4351-A1B6-FD09089BE13D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Casos (2)'!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MP=03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Casos (2)'!$B$36:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Casos (2)'!$B$40:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6545-4351-A1B6-FD09089BE13D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1469897840"/>
+        <c:axId val="1469902832"/>
+        <c:axId val="1680666240"/>
+        <c:extLst/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="1469897840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1469902832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1469902832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" sz="1800" b="1" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t># de fallas</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1469897840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1680666240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1469902832"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>4x4, TE=2, Recorrido 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Casos (2)'!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MP=36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Casos (2)'!$B$52:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Casos (2)'!$B$53:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A084-4BC0-A1E8-DFD10C203F7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Casos (2)'!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MP=18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Casos (2)'!$B$52:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Casos (2)'!$B$54:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A084-4BC0-A1E8-DFD10C203F7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Casos (2)'!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MP=06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Casos (2)'!$B$52:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Casos (2)'!$B$55:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A084-4BC0-A1E8-DFD10C203F7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Casos (2)'!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MP=03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Casos (2)'!$B$52:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Casos (2)'!$B$56:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A084-4BC0-A1E8-DFD10C203F7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1469897840"/>
+        <c:axId val="1469902832"/>
+        <c:axId val="1680666240"/>
+        <c:extLst/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="1469897840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1469902832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1469902832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" sz="1800" b="1" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t># de fallas</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1469897840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1680666240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1469902832"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>4x4, TE=4, Recorrido 1</a:t>
             </a:r>
           </a:p>
@@ -3664,7 +5744,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -9927,7 +12007,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>4x4, TE=1, Recorrido 1</a:t>
+              <a:t>16x16, TE=4, Recorrido 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10016,7 +12096,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Casos (2)'!$A$5</c:f>
+              <c:f>Casos!$A$99</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10052,7 +12132,7 @@
               </a:gsLst>
               <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
-            <a:ln>
+            <a:ln w="25400">
               <a:noFill/>
             </a:ln>
             <a:effectLst>
@@ -10121,10 +12201,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$4:$E$4</c:f>
+              <c:f>Casos!$B$98:$G$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -10136,27 +12216,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$5:$E$5</c:f>
+              <c:f>Casos!$B$99:$G$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10164,7 +12256,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AAFE-4AF7-A6E6-EFFDF584A414}"/>
+              <c16:uniqueId val="{00000000-6A82-4BE1-9B01-4518F7C54484}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10173,7 +12265,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Casos (2)'!$A$6</c:f>
+              <c:f>Casos!$A$100</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10209,7 +12301,7 @@
               </a:gsLst>
               <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
-            <a:ln>
+            <a:ln w="25400">
               <a:noFill/>
             </a:ln>
             <a:effectLst>
@@ -10278,10 +12370,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$4:$E$4</c:f>
+              <c:f>Casos!$B$98:$G$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -10293,27 +12385,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$6:$E$6</c:f>
+              <c:f>Casos!$B$100:$G$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10321,7 +12425,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AAFE-4AF7-A6E6-EFFDF584A414}"/>
+              <c16:uniqueId val="{00000001-6A82-4BE1-9B01-4518F7C54484}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10330,7 +12434,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Casos (2)'!$A$7</c:f>
+              <c:f>Casos!$A$101</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10366,7 +12470,7 @@
               </a:gsLst>
               <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
-            <a:ln>
+            <a:ln w="25400">
               <a:noFill/>
             </a:ln>
             <a:effectLst>
@@ -10435,10 +12539,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$4:$E$4</c:f>
+              <c:f>Casos!$B$98:$G$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -10450,27 +12554,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$7:$E$7</c:f>
+              <c:f>Casos!$B$101:$G$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10478,7 +12594,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AAFE-4AF7-A6E6-EFFDF584A414}"/>
+              <c16:uniqueId val="{00000002-6A82-4BE1-9B01-4518F7C54484}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10487,7 +12603,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Casos (2)'!$A$8</c:f>
+              <c:f>Casos!$A$102</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10523,7 +12639,7 @@
               </a:gsLst>
               <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
-            <a:ln>
+            <a:ln w="25400">
               <a:noFill/>
             </a:ln>
             <a:effectLst>
@@ -10592,10 +12708,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$4:$E$4</c:f>
+              <c:f>Casos!$B$98:$G$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -10607,27 +12723,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$8:$E$8</c:f>
+              <c:f>Casos!$B$102:$G$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10635,7 +12763,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AAFE-4AF7-A6E6-EFFDF584A414}"/>
+              <c16:uniqueId val="{00000003-6A82-4BE1-9B01-4518F7C54484}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10650,6 +12778,7 @@
         <c:axId val="1469897840"/>
         <c:axId val="1469902832"/>
         <c:axId val="1680666240"/>
+        <c:extLst/>
       </c:line3DChart>
       <c:catAx>
         <c:axId val="1469897840"/>
@@ -10722,66 +12851,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-CO" sz="1800" b="1" i="0" cap="all" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t># de fallas</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-CO">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -10963,7 +13034,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>4x4, TE=1, Recorrido 2</a:t>
+              <a:t>16x16, TE=4, Recorrido 2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -11052,7 +13123,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Casos (2)'!$A$21</c:f>
+              <c:f>Casos!$A$114</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11136,7 +13207,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -11157,10 +13228,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$20:$E$20</c:f>
+              <c:f>Casos!$B$113:$G$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -11172,27 +13243,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$21:$E$21</c:f>
+              <c:f>Casos!$B$114:$G$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11200,7 +13283,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E2A0-4B63-ABDC-40B6B81F7B3C}"/>
+              <c16:uniqueId val="{00000000-1D8A-43C8-949F-82165741E9A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11209,7 +13292,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Casos (2)'!$A$22</c:f>
+              <c:f>Casos!$A$115</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11314,10 +13397,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$20:$E$20</c:f>
+              <c:f>Casos!$B$113:$G$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -11329,27 +13412,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$22:$E$22</c:f>
+              <c:f>Casos!$B$115:$G$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11357,7 +13452,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E2A0-4B63-ABDC-40B6B81F7B3C}"/>
+              <c16:uniqueId val="{00000001-1D8A-43C8-949F-82165741E9A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11366,7 +13461,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Casos (2)'!$A$23</c:f>
+              <c:f>Casos!$A$116</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11471,10 +13566,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$20:$E$20</c:f>
+              <c:f>Casos!$B$113:$G$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -11486,27 +13581,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$23:$E$23</c:f>
+              <c:f>Casos!$B$116:$G$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11514,7 +13621,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E2A0-4B63-ABDC-40B6B81F7B3C}"/>
+              <c16:uniqueId val="{00000002-1D8A-43C8-949F-82165741E9A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11523,7 +13630,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Casos (2)'!$A$24</c:f>
+              <c:f>Casos!$A$117</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11628,10 +13735,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$20:$E$20</c:f>
+              <c:f>Casos!$B$113:$G$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -11643,27 +13750,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$24:$E$24</c:f>
+              <c:f>Casos!$B$117:$G$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11671,7 +13790,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E2A0-4B63-ABDC-40B6B81F7B3C}"/>
+              <c16:uniqueId val="{00000003-1D8A-43C8-949F-82165741E9A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12000,7 +14119,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>4x4, TE=2, Recorrido 1</a:t>
+              <a:t>4x4, TE=1, Recorrido 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12089,7 +14208,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Casos (2)'!$A$37</c:f>
+              <c:f>'Casos (2)'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12125,164 +14244,7 @@
               </a:gsLst>
               <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:sp3d/>
-          </c:spPr>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Casos (2)'!$B$36:$E$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Casos (2)'!$B$37:$E$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6545-4351-A1B6-FD09089BE13D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Casos (2)'!$A$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MP=18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="25400">
+            <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst>
@@ -12351,7 +14313,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$36:$E$36</c:f>
+              <c:f>'Casos (2)'!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -12372,12 +14334,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$38:$E$38</c:f>
+              <c:f>'Casos (2)'!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -12394,20 +14356,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6545-4351-A1B6-FD09089BE13D}"/>
+              <c16:uniqueId val="{00000000-AAFE-4AF7-A6E6-EFFDF584A414}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Casos (2)'!$A$39</c:f>
+              <c:f>'Casos (2)'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MP=06</c:v>
+                  <c:v>MP=18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12416,21 +14378,21 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent2">
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent2">
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
+                  <a:schemeClr val="accent2">
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -12439,7 +14401,7 @@
               </a:gsLst>
               <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
-            <a:ln w="25400">
+            <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst>
@@ -12508,7 +14470,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$36:$E$36</c:f>
+              <c:f>'Casos (2)'!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -12529,15 +14491,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$39:$E$39</c:f>
+              <c:f>'Casos (2)'!$B$6:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -12551,20 +14513,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6545-4351-A1B6-FD09089BE13D}"/>
+              <c16:uniqueId val="{00000001-AAFE-4AF7-A6E6-EFFDF584A414}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Casos (2)'!$A$40</c:f>
+              <c:f>'Casos (2)'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MP=03</c:v>
+                  <c:v>MP=06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12573,21 +14535,21 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent3">
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent3">
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent3">
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -12596,7 +14558,7 @@
               </a:gsLst>
               <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
-            <a:ln w="25400">
+            <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst>
@@ -12665,7 +14627,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$36:$E$36</c:f>
+              <c:f>'Casos (2)'!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -12686,18 +14648,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Casos (2)'!$B$40:$E$40</c:f>
+              <c:f>'Casos (2)'!$B$7:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -12708,7 +14670,164 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6545-4351-A1B6-FD09089BE13D}"/>
+              <c16:uniqueId val="{00000002-AAFE-4AF7-A6E6-EFFDF584A414}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Casos (2)'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MP=03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Casos (2)'!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Casos (2)'!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AAFE-4AF7-A6E6-EFFDF584A414}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12723,7 +14842,6 @@
         <c:axId val="1469897840"/>
         <c:axId val="1469902832"/>
         <c:axId val="1680666240"/>
-        <c:extLst/>
       </c:line3DChart>
       <c:catAx>
         <c:axId val="1469897840"/>
@@ -13156,6 +15274,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15460,6 +17658,998 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="309">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="309">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="309">
   <cs:axisTitle>
@@ -19651,6 +22841,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B05182B-8568-4B35-96C1-CCF3934E4B67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAA9C96D-1467-49E9-BD22-0BCC2194D25B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20204,17 +23470,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41299C6A-7D40-4786-BF2E-05EB88E49E30}">
-  <dimension ref="A3:E88"/>
+  <dimension ref="A3:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:E51"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N103" sqref="N103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="6.5703125" customWidth="1"/>
-    <col min="6" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="6" customWidth="1"/>
+    <col min="8" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -20763,11 +24029,259 @@
         <v>24</v>
       </c>
     </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="49"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98">
+        <v>16</v>
+      </c>
+      <c r="E98">
+        <v>32</v>
+      </c>
+      <c r="F98">
+        <v>64</v>
+      </c>
+      <c r="G98">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>768</v>
+      </c>
+      <c r="C99">
+        <v>384</v>
+      </c>
+      <c r="D99">
+        <v>195</v>
+      </c>
+      <c r="E99">
+        <v>96</v>
+      </c>
+      <c r="F99">
+        <v>48</v>
+      </c>
+      <c r="G99">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>768</v>
+      </c>
+      <c r="C100">
+        <v>384</v>
+      </c>
+      <c r="D100">
+        <v>192</v>
+      </c>
+      <c r="E100">
+        <v>96</v>
+      </c>
+      <c r="F100">
+        <v>48</v>
+      </c>
+      <c r="G100">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <v>768</v>
+      </c>
+      <c r="C101">
+        <v>384</v>
+      </c>
+      <c r="D101">
+        <v>192</v>
+      </c>
+      <c r="E101">
+        <v>96</v>
+      </c>
+      <c r="F101">
+        <v>48</v>
+      </c>
+      <c r="G101">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102">
+        <v>768</v>
+      </c>
+      <c r="C102">
+        <v>385</v>
+      </c>
+      <c r="D102">
+        <v>192</v>
+      </c>
+      <c r="E102">
+        <v>96</v>
+      </c>
+      <c r="F102">
+        <v>49</v>
+      </c>
+      <c r="G102">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" s="49"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="49"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="49"/>
+      <c r="G112" s="49"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>16</v>
+      </c>
+      <c r="E113">
+        <v>32</v>
+      </c>
+      <c r="F113">
+        <v>64</v>
+      </c>
+      <c r="G113">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>768</v>
+      </c>
+      <c r="C114">
+        <v>696</v>
+      </c>
+      <c r="D114">
+        <v>674</v>
+      </c>
+      <c r="E114">
+        <v>531</v>
+      </c>
+      <c r="F114">
+        <v>433</v>
+      </c>
+      <c r="G114">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <v>768</v>
+      </c>
+      <c r="C115">
+        <v>768</v>
+      </c>
+      <c r="D115">
+        <v>768</v>
+      </c>
+      <c r="E115">
+        <v>768</v>
+      </c>
+      <c r="F115">
+        <v>768</v>
+      </c>
+      <c r="G115">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116">
+        <v>768</v>
+      </c>
+      <c r="C116">
+        <v>768</v>
+      </c>
+      <c r="D116">
+        <v>768</v>
+      </c>
+      <c r="E116">
+        <v>768</v>
+      </c>
+      <c r="F116">
+        <v>768</v>
+      </c>
+      <c r="G116">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117">
+        <v>768</v>
+      </c>
+      <c r="C117">
+        <v>768</v>
+      </c>
+      <c r="D117">
+        <v>768</v>
+      </c>
+      <c r="E117">
+        <v>768</v>
+      </c>
+      <c r="F117">
+        <v>768</v>
+      </c>
+      <c r="G117">
+        <v>386</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:E56">
     <sortCondition descending="1" ref="A53:A56"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A97:G97"/>
+    <mergeCell ref="A112:G112"/>
     <mergeCell ref="A67:E67"/>
     <mergeCell ref="A83:E83"/>
     <mergeCell ref="A3:E3"/>
@@ -21411,126 +24925,126 @@
       <c r="K3" t="s">
         <v>10</v>
       </c>
-      <c r="AG3" s="50">
+      <c r="AG3" s="72">
         <v>0</v>
       </c>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="50">
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="72">
         <v>1</v>
       </c>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="50">
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="74"/>
+      <c r="AM3" s="72">
         <v>2</v>
       </c>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="50">
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="72">
         <v>3</v>
       </c>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="50">
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="72">
         <v>4</v>
       </c>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="50">
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="72">
         <v>5</v>
       </c>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="50">
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="72">
         <v>6</v>
       </c>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="50">
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="74"/>
+      <c r="BB3" s="72">
         <v>7</v>
       </c>
-      <c r="BC3" s="51"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="50">
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="72">
         <v>8</v>
       </c>
-      <c r="BF3" s="51"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="50">
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="74"/>
+      <c r="BH3" s="72">
         <v>9</v>
       </c>
-      <c r="BI3" s="51"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="50">
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="74"/>
+      <c r="BK3" s="72">
         <v>10</v>
       </c>
-      <c r="BL3" s="51"/>
-      <c r="BM3" s="52"/>
-      <c r="BN3" s="50">
+      <c r="BL3" s="73"/>
+      <c r="BM3" s="74"/>
+      <c r="BN3" s="72">
         <v>11</v>
       </c>
-      <c r="BO3" s="51"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="50">
+      <c r="BO3" s="73"/>
+      <c r="BP3" s="74"/>
+      <c r="BQ3" s="72">
         <v>12</v>
       </c>
-      <c r="BR3" s="51"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="50">
+      <c r="BR3" s="73"/>
+      <c r="BS3" s="74"/>
+      <c r="BT3" s="72">
         <v>13</v>
       </c>
-      <c r="BU3" s="51"/>
-      <c r="BV3" s="52"/>
-      <c r="BW3" s="50">
+      <c r="BU3" s="73"/>
+      <c r="BV3" s="74"/>
+      <c r="BW3" s="72">
         <v>14</v>
       </c>
-      <c r="BX3" s="51"/>
-      <c r="BY3" s="52"/>
-      <c r="BZ3" s="50">
+      <c r="BX3" s="73"/>
+      <c r="BY3" s="74"/>
+      <c r="BZ3" s="72">
         <v>15</v>
       </c>
-      <c r="CA3" s="51"/>
-      <c r="CB3" s="52"/>
-      <c r="CC3" s="50">
+      <c r="CA3" s="73"/>
+      <c r="CB3" s="74"/>
+      <c r="CC3" s="72">
         <v>16</v>
       </c>
-      <c r="CD3" s="51"/>
-      <c r="CE3" s="52"/>
-      <c r="CF3" s="50">
+      <c r="CD3" s="73"/>
+      <c r="CE3" s="74"/>
+      <c r="CF3" s="72">
         <v>17</v>
       </c>
-      <c r="CG3" s="51"/>
-      <c r="CH3" s="52"/>
-      <c r="CI3" s="50">
+      <c r="CG3" s="73"/>
+      <c r="CH3" s="74"/>
+      <c r="CI3" s="72">
         <v>18</v>
       </c>
-      <c r="CJ3" s="51"/>
-      <c r="CK3" s="52"/>
-      <c r="CL3" s="50">
+      <c r="CJ3" s="73"/>
+      <c r="CK3" s="74"/>
+      <c r="CL3" s="72">
         <v>19</v>
       </c>
-      <c r="CM3" s="51"/>
-      <c r="CN3" s="52"/>
-      <c r="CO3" s="50">
+      <c r="CM3" s="73"/>
+      <c r="CN3" s="74"/>
+      <c r="CO3" s="72">
         <v>20</v>
       </c>
-      <c r="CP3" s="51"/>
-      <c r="CQ3" s="52"/>
-      <c r="CR3" s="50">
+      <c r="CP3" s="73"/>
+      <c r="CQ3" s="74"/>
+      <c r="CR3" s="72">
         <v>21</v>
       </c>
-      <c r="CS3" s="51"/>
-      <c r="CT3" s="52"/>
-      <c r="CU3" s="50">
+      <c r="CS3" s="73"/>
+      <c r="CT3" s="74"/>
+      <c r="CU3" s="72">
         <v>22</v>
       </c>
-      <c r="CV3" s="51"/>
-      <c r="CW3" s="52"/>
-      <c r="CX3" s="50">
+      <c r="CV3" s="73"/>
+      <c r="CW3" s="74"/>
+      <c r="CX3" s="72">
         <v>23</v>
       </c>
-      <c r="CY3" s="51"/>
-      <c r="CZ3" s="52"/>
+      <c r="CY3" s="73"/>
+      <c r="CZ3" s="74"/>
     </row>
     <row r="4" spans="2:104" x14ac:dyDescent="0.25">
       <c r="R4">
@@ -21772,46 +25286,46 @@
       </c>
     </row>
     <row r="5" spans="2:104" x14ac:dyDescent="0.25">
-      <c r="B5" s="53">
+      <c r="B5" s="50">
         <v>0</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="53">
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="50">
         <v>1</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="53">
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="50">
         <v>2</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="53">
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="50">
         <v>3</v>
       </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="53">
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="50">
         <v>4</v>
       </c>
-      <c r="O5" s="54"/>
-      <c r="P5" s="55"/>
-      <c r="R5" s="53">
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
+      <c r="R5" s="50">
         <v>0</v>
       </c>
-      <c r="S5" s="54"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="53">
+      <c r="S5" s="51"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="50">
         <v>2</v>
       </c>
-      <c r="V5" s="54"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="53">
+      <c r="V5" s="51"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="50">
         <v>3</v>
       </c>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="55"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="52"/>
       <c r="AG5" s="45"/>
       <c r="AH5" s="46"/>
       <c r="AI5" s="47"/>
@@ -22036,56 +25550,56 @@
       </c>
     </row>
     <row r="9" spans="2:104" x14ac:dyDescent="0.25">
-      <c r="B9" s="53">
+      <c r="B9" s="50">
         <v>0</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="53">
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="50">
         <v>1</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="53">
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="50">
         <v>2</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="53">
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="50">
         <v>3</v>
       </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="53">
+      <c r="L9" s="51"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="50">
         <v>4</v>
       </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="53">
+      <c r="O9" s="51"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="50">
         <v>5</v>
       </c>
-      <c r="R9" s="54"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="53">
+      <c r="R9" s="51"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="50">
         <v>6</v>
       </c>
-      <c r="U9" s="54"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="53">
+      <c r="U9" s="51"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="50">
         <v>7</v>
       </c>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="53">
+      <c r="X9" s="51"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="50">
         <v>8</v>
       </c>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="53">
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="50">
         <v>9</v>
       </c>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="55"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="52"/>
       <c r="AG9" t="s">
         <v>14</v>
       </c>
@@ -22183,45 +25697,45 @@
       </c>
     </row>
     <row r="11" spans="2:104" x14ac:dyDescent="0.25">
-      <c r="B11" s="56">
+      <c r="B11" s="62">
         <v>1</v>
       </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="26"/>
-      <c r="E11" s="58">
+      <c r="E11" s="64">
         <v>2</v>
       </c>
-      <c r="F11" s="59"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="27"/>
-      <c r="H11" s="60">
+      <c r="H11" s="66">
         <v>3</v>
       </c>
-      <c r="I11" s="61"/>
+      <c r="I11" s="67"/>
       <c r="J11" s="28"/>
-      <c r="K11" s="62">
+      <c r="K11" s="68">
         <v>4</v>
       </c>
-      <c r="L11" s="63"/>
+      <c r="L11" s="69"/>
       <c r="M11" s="29"/>
-      <c r="N11" s="64">
+      <c r="N11" s="70">
         <v>5</v>
       </c>
-      <c r="O11" s="65"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="32"/>
-      <c r="Q11" s="69">
+      <c r="Q11" s="56">
         <v>6</v>
       </c>
-      <c r="R11" s="70"/>
+      <c r="R11" s="57"/>
       <c r="S11" s="26"/>
-      <c r="T11" s="71">
+      <c r="T11" s="58">
         <v>7</v>
       </c>
-      <c r="U11" s="72"/>
+      <c r="U11" s="59"/>
       <c r="V11" s="27"/>
-      <c r="W11" s="73">
+      <c r="W11" s="60">
         <v>8</v>
       </c>
-      <c r="X11" s="74"/>
+      <c r="X11" s="61"/>
       <c r="Y11" s="28"/>
       <c r="Z11" s="33"/>
       <c r="AA11" s="34"/>
@@ -22231,27 +25745,27 @@
       <c r="AE11" s="32"/>
     </row>
     <row r="14" spans="2:104" x14ac:dyDescent="0.25">
-      <c r="B14" s="66">
+      <c r="B14" s="53">
         <v>0</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66">
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53">
         <v>1</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66">
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53">
         <v>2</v>
       </c>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
     </row>
     <row r="15" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B15" s="35">
@@ -22301,32 +25815,32 @@
       </c>
     </row>
     <row r="16" spans="2:104" x14ac:dyDescent="0.25">
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="67" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="68"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="67" t="s">
+      <c r="H16" s="55"/>
+      <c r="I16" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="68"/>
+      <c r="J16" s="55"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="67" t="s">
+      <c r="L16" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M16" s="68"/>
-      <c r="N16" s="67" t="s">
+      <c r="M16" s="55"/>
+      <c r="N16" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="68"/>
+      <c r="O16" s="55"/>
       <c r="P16" s="35"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -22343,16 +25857,16 @@
       <c r="T18" s="37"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B19" s="53">
+      <c r="B19" s="50">
         <v>0</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="53">
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="50">
         <v>1</v>
       </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
       <c r="I19" t="s">
         <v>10</v>
       </c>
@@ -22434,16 +25948,16 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B22" s="53">
+      <c r="B22" s="50">
         <v>0</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="54">
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="51">
         <v>0.1</v>
       </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L23" t="s">
@@ -22604,12 +26118,47 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="BZ3:CB3"/>
+    <mergeCell ref="CC3:CE3"/>
+    <mergeCell ref="CU3:CW3"/>
+    <mergeCell ref="CX3:CZ3"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BS3"/>
+    <mergeCell ref="BT3:BV3"/>
+    <mergeCell ref="BW3:BY3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q9:S9"/>
     <mergeCell ref="AC9:AE9"/>
     <mergeCell ref="L14:P14"/>
     <mergeCell ref="B16:C16"/>
@@ -22626,47 +26175,12 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BS3"/>
-    <mergeCell ref="BT3:BV3"/>
-    <mergeCell ref="BW3:BY3"/>
-    <mergeCell ref="BZ3:CB3"/>
-    <mergeCell ref="CC3:CE3"/>
-    <mergeCell ref="CU3:CW3"/>
-    <mergeCell ref="CX3:CZ3"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="CR3:CT3"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
